--- a/DDAf_2022_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -112,7 +112,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -154,13 +154,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -178,7 +178,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -250,7 +250,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -262,7 +262,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -364,7 +364,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -382,7 +382,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -400,7 +400,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>
@@ -1314,7 +1314,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>

--- a/DDAf_2022_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
   <si>
     <t>Tableau 9 : Caractéristiques de la population active</t>
   </si>
@@ -1300,11 +1297,9 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1314,44 +1309,44 @@
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="12">
         <v>77.44</v>
@@ -1380,10 +1375,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="15">
         <v>70.55</v>
@@ -1412,10 +1407,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="19">
         <v>52.44</v>
@@ -1444,10 +1439,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="19">
         <v>67.900000000000006</v>
@@ -1476,10 +1471,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="19">
         <v>76.349999999999994</v>
@@ -1508,10 +1503,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="19">
         <v>78.069999999999993</v>
@@ -1540,10 +1535,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="19">
         <v>59.38</v>
@@ -1572,10 +1567,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="19">
         <v>56.08</v>
@@ -1604,10 +1599,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="15">
         <v>74.5</v>
@@ -1636,10 +1631,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="22">
         <v>83.07</v>
@@ -1668,10 +1663,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="26">
         <v>69.578000000000003</v>
@@ -1700,10 +1695,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="19">
         <v>79.22</v>
@@ -1732,10 +1727,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="19">
         <v>76.11</v>
@@ -1764,10 +1759,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="19">
         <v>71.81</v>
@@ -1796,10 +1791,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="12">
         <v>70.59</v>
@@ -1828,10 +1823,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="12">
         <v>69.39</v>
@@ -1860,10 +1855,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="15">
         <v>63.59</v>
@@ -1892,10 +1887,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="12">
         <v>61.96</v>
@@ -1924,10 +1919,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="12">
         <v>52.9</v>
@@ -1956,10 +1951,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="C22" s="19">
         <v>57.77</v>
@@ -1988,10 +1983,10 @@
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="26">
         <v>67.037777777777805</v>
@@ -2020,10 +2015,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="C24" s="19">
         <v>45.54</v>
@@ -2052,10 +2047,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="C25" s="19">
         <v>60.15</v>
@@ -2084,10 +2079,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="C26" s="19">
         <v>78.94</v>
@@ -2116,10 +2111,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="C27" s="19">
         <v>79.290000000000006</v>
@@ -2148,10 +2143,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="C28" s="19">
         <v>74.239999999999995</v>
@@ -2180,10 +2175,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="19">
         <v>85.92</v>
@@ -2212,10 +2207,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="C30" s="19">
         <v>57.88</v>
@@ -2244,10 +2239,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="19">
         <v>83.55</v>
@@ -2276,42 +2271,42 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="D32" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="19">
         <v>47.74</v>
@@ -2340,10 +2335,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="15">
         <v>72.27</v>
@@ -2372,10 +2367,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="19">
         <v>48.53</v>
@@ -2404,10 +2399,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="19">
         <v>83.42</v>
@@ -2436,10 +2431,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="19">
         <v>70.040000000000006</v>
@@ -2468,10 +2463,10 @@
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="26">
         <v>68.27</v>
@@ -2500,10 +2495,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="12">
         <v>42.53</v>
@@ -2532,10 +2527,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="19">
         <v>44.83</v>
@@ -2564,10 +2559,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="12">
         <v>49.7</v>
@@ -2596,10 +2591,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="12">
         <v>45.37</v>
@@ -2628,10 +2623,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="C43" s="19">
         <v>45.37</v>
@@ -2660,10 +2655,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="19">
         <v>46.44</v>
@@ -2692,10 +2687,10 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="26">
         <v>45.706666666666699</v>
@@ -2724,10 +2719,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="19">
         <v>70.760000000000005</v>
@@ -2756,10 +2751,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="19">
         <v>66.47</v>
@@ -2788,10 +2783,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="19">
         <v>60.38</v>
@@ -2820,10 +2815,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="19">
         <v>53.69</v>
@@ -2852,10 +2847,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="19">
         <v>59.28</v>
@@ -2884,10 +2879,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="15">
         <v>67.81</v>
@@ -2916,10 +2911,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="19">
         <v>61.39</v>
@@ -2948,10 +2943,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C53" s="19">
         <v>72.069999999999993</v>
@@ -2980,10 +2975,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="19">
         <v>76.13</v>
@@ -3012,10 +3007,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="C55" s="19">
         <v>69.31</v>
@@ -3044,10 +3039,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="19">
         <v>72.150000000000006</v>
@@ -3076,10 +3071,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="C57" s="12">
         <v>55.87</v>
@@ -3108,10 +3103,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C58" s="19">
         <v>45.65</v>
@@ -3140,10 +3135,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="19">
         <v>57.89</v>
@@ -3172,10 +3167,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="15">
         <v>58.81</v>
@@ -3205,7 +3200,7 @@
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="26">
         <v>63.177333333333401</v>
@@ -3235,7 +3230,7 @@
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="32">
         <v>64.311886792452896</v>
@@ -3265,7 +3260,7 @@
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="32">
         <v>61.724559999999997</v>
@@ -3295,7 +3290,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="36">
         <v>65.066551724137994</v>
@@ -3325,7 +3320,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="39">
         <v>59.824666666666701</v>
@@ -3355,7 +3350,7 @@
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="42">
         <v>62.494943820224698</v>
@@ -3385,7 +3380,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="39">
         <v>65.097999999999999</v>
@@ -3415,7 +3410,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="39">
         <v>58.6464</v>
@@ -3445,7 +3440,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="39">
         <v>77.123333333333406</v>
@@ -3475,7 +3470,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="39">
         <v>69.484545454545497</v>
@@ -3505,7 +3500,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="39">
         <v>63.177333333333401</v>
@@ -3535,7 +3530,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="39">
         <v>66.400000000000006</v>
@@ -3565,7 +3560,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="39">
         <v>68.808666666666696</v>
@@ -3595,7 +3590,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="39">
         <v>45.881999999999998</v>
@@ -3625,7 +3620,7 @@
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="42">
         <v>67.948333333333295</v>
@@ -3655,7 +3650,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="39">
         <v>69.271000000000001</v>
@@ -3685,7 +3680,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="39">
         <v>64.581666666666706</v>
@@ -3715,7 +3710,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="39">
         <v>58.7462962962963</v>
@@ -3745,7 +3740,7 @@
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="42">
         <v>61.379473684210502</v>
@@ -3775,7 +3770,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="39">
         <v>58.4166666666667</v>
@@ -3805,7 +3800,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="39">
         <v>62.158999999999999</v>
@@ -3835,7 +3830,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="39">
         <v>65.517727272727299</v>
@@ -3865,7 +3860,7 @@
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="42">
         <v>61.641809523809499</v>
@@ -3895,7 +3890,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="39">
         <v>69.539565217391299</v>
@@ -3925,7 +3920,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="39">
         <v>53.075000000000003</v>
@@ -3955,7 +3950,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="39">
         <v>60.898695652173899</v>
@@ -3985,7 +3980,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="39">
         <v>62.888275862069001</v>
@@ -4015,7 +4010,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="39">
         <v>58.35</v>
@@ -4045,7 +4040,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="39">
         <v>60.022619047619102</v>
@@ -4075,7 +4070,7 @@
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="42">
         <v>63.2777551020408</v>
@@ -4105,7 +4100,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="39">
         <v>67.512424242424302</v>
@@ -4135,7 +4130,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="39">
         <v>67.155000000000001</v>
@@ -4165,7 +4160,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="39">
         <v>58.728000000000002</v>
@@ -4195,7 +4190,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="39">
         <v>63.551363636363703</v>
@@ -4225,7 +4220,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="39">
         <v>72.469374999999999</v>
@@ -4255,7 +4250,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="42">
         <v>61.740625000000001</v>
@@ -4285,7 +4280,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="39">
         <v>66.764864864864904</v>
@@ -4315,7 +4310,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C98" s="39">
         <v>59.344736842105299</v>
@@ -4345,7 +4340,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="42">
         <v>58.9130769230769</v>
@@ -4386,7 +4381,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4400,7 +4395,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4414,7 +4409,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4428,7 +4423,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4442,7 +4437,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4478,7 +4473,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4502,7 +4497,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4515,7 +4510,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4539,7 +4534,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4552,7 +4547,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -4576,7 +4571,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="172">
   <si>
     <t>Tableau 9 : Caractéristiques de la population active</t>
   </si>
@@ -490,19 +490,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -517,7 +520,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Organisation internationale du Travail - ILOSTAT (récupéré le 14/11/2021).</t>
@@ -4133,28 +4136,28 @@
         <v>154</v>
       </c>
       <c r="C92" s="39">
-        <v>67.155000000000001</v>
+        <v>66.904545454545499</v>
       </c>
       <c r="D92" s="39">
-        <v>56.12</v>
+        <v>55.679090909090903</v>
       </c>
       <c r="E92" s="40">
-        <v>78.144166666666706</v>
+        <v>78.080909090909103</v>
       </c>
       <c r="F92" s="39">
-        <v>65.320128442967402</v>
+        <v>65.090557418675104</v>
       </c>
       <c r="G92" s="39">
-        <v>36.2048392760383</v>
+        <v>36.208797378927102</v>
       </c>
       <c r="H92" s="39">
-        <v>3.6394427405568202</v>
+        <v>3.6423438072266401</v>
       </c>
       <c r="I92" s="39">
-        <v>42.927324336343801</v>
+        <v>42.907316191777902</v>
       </c>
       <c r="J92" s="40">
-        <v>17.228387297519799</v>
+        <v>17.241536266863498</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -4250,7 +4253,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="42">
         <v>61.740625000000001</v>
@@ -4280,7 +4283,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="39">
         <v>66.764864864864904</v>
@@ -4310,7 +4313,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C98" s="39">
         <v>59.344736842105299</v>
@@ -4340,7 +4343,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="42">
         <v>58.9130769230769</v>
@@ -4381,7 +4384,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4395,7 +4398,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4409,7 +4412,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4423,7 +4426,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4437,7 +4440,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4473,7 +4476,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4497,7 +4500,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4510,7 +4513,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4534,7 +4537,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4547,7 +4550,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>Source : Organisation internationale du Travail - ILOSTAT (récupéré le 14/11/2021).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -4574,7 +4574,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
